--- a/BBC/Dataset/Statistics.xlsx
+++ b/BBC/Dataset/Statistics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\theod\Documents\GitHub\P5\BBC\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B0501C-C2B9-44B5-B152-5ED50A7AC677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E22E5DA-1E77-4F82-A581-08967933F7F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6DDD2570-AEA6-46F9-8907-798972F8AF5E}"/>
   </bookViews>
@@ -552,7 +552,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE613B5F-C672-4A48-9DDA-6A5E2367E565}">
   <dimension ref="A1:E48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="V22" sqref="V22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
